--- a/template_synthese.xlsx
+++ b/template_synthese.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27716"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\OneDrive\Bureau\git_repo\pointage_for_windows\pointage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3E11F20-F304-4829-AF30-790748076436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3F7F7D-172A-407D-9A43-E6F8EAF75F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -861,7 +861,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -905,12 +905,6 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -926,27 +920,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -995,13 +974,167 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1019,132 +1152,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1423,13 +1436,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScale="72" zoomScaleNormal="100" zoomScaleSheetLayoutView="76" zoomScalePageLayoutView="72" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="76" zoomScalePageLayoutView="52" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.453125" customWidth="1"/>
     <col min="2" max="2" width="20.1796875" customWidth="1"/>
@@ -1818,10 +1831,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="98"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
       <c r="E1" s="6"/>
@@ -1836,10 +1849,10 @@
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="48"/>
+      <c r="G2" s="93"/>
       <c r="H2" s="8"/>
       <c r="I2" s="6"/>
     </row>
@@ -1856,24 +1869,24 @@
     </row>
     <row r="4" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="9"/>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="51"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="96"/>
       <c r="H4" s="9"/>
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
       <c r="G5" s="1"/>
       <c r="H5" s="9"/>
       <c r="I5" s="6"/>
@@ -1894,15 +1907,15 @@
         <v>3</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="45"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="47"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="46"/>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
@@ -1919,18 +1932,18 @@
       <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="45"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="47"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="46"/>
       <c r="G9" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H9" s="45"/>
-      <c r="I9" s="47"/>
+      <c r="I9" s="46"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
@@ -1948,15 +1961,15 @@
         <v>8</v>
       </c>
       <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="47"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="46"/>
       <c r="G11" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H11" s="45"/>
-      <c r="I11" s="47"/>
+      <c r="I11" s="46"/>
     </row>
     <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
@@ -1974,13 +1987,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="45"/>
-      <c r="C13" s="47"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="45"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="47"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="46"/>
       <c r="H13" s="10" t="s">
         <v>12</v>
       </c>
@@ -2014,7 +2027,7 @@
         <v>16</v>
       </c>
       <c r="H15" s="45"/>
-      <c r="I15" s="47"/>
+      <c r="I15" s="46"/>
     </row>
     <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
@@ -2032,9 +2045,9 @@
         <v>17</v>
       </c>
       <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="47"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="46"/>
       <c r="F17" s="10" t="s">
         <v>18</v>
       </c>
@@ -2060,17 +2073,17 @@
         <v>20</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="47"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="48"/>
       <c r="G19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="45"/>
-      <c r="I19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="48"/>
     </row>
     <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13"/>
@@ -2091,16 +2104,16 @@
       <c r="C21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="16"/>
+      <c r="F21" s="44"/>
       <c r="G21" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="55"/>
-      <c r="I21" s="56"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="91"/>
     </row>
     <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
@@ -2114,11 +2127,11 @@
       <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="16"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="44"/>
       <c r="D23" s="10" t="s">
         <v>28</v>
       </c>
@@ -2126,11 +2139,11 @@
       <c r="F23" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="17" t="s">
+      <c r="G23" s="8"/>
+      <c r="H23" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="11"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
@@ -2150,11 +2163,11 @@
       <c r="B25" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="16" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="45"/>
-      <c r="E25" s="47"/>
+      <c r="E25" s="46"/>
       <c r="F25" s="10" t="s">
         <v>33</v>
       </c>
@@ -2176,10 +2189,10 @@
       <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="59"/>
+      <c r="B27" s="63"/>
       <c r="C27" s="11"/>
       <c r="D27" s="10" t="s">
         <v>36</v>
@@ -2211,7 +2224,7 @@
         <v>38</v>
       </c>
       <c r="B29" s="45"/>
-      <c r="C29" s="47"/>
+      <c r="C29" s="46"/>
       <c r="D29" s="10" t="s">
         <v>39</v>
       </c>
@@ -2220,8 +2233,8 @@
         <v>40</v>
       </c>
       <c r="G29" s="45"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="47"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="46"/>
     </row>
     <row r="30" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="6"/>
@@ -2235,86 +2248,86 @@
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="63"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="86"/>
     </row>
     <row r="32" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="65"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="19" t="s">
+      <c r="B32" s="87"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="64" t="s">
+      <c r="F32" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="66"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="57"/>
     </row>
     <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="67"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="72"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="79"/>
     </row>
     <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="73"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="74"/>
+      <c r="A34" s="80"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="81"/>
     </row>
     <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="75"/>
-      <c r="B35" s="76"/>
+      <c r="A35" s="82"/>
+      <c r="B35" s="83"/>
       <c r="C35" s="45"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="77"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="84"/>
     </row>
     <row r="36" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="78"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="81"/>
+      <c r="A36" s="66"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="69"/>
     </row>
     <row r="37" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+      <c r="D37" s="42"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -2323,15 +2336,15 @@
     </row>
     <row r="38" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="6"/>
-      <c r="B38" s="82" t="s">
+      <c r="B38" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="84"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="72"/>
       <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2346,46 +2359,46 @@
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="60" t="s">
+      <c r="A40" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="61"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="85"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="55"/>
     </row>
     <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="29"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="31"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="24"/>
     </row>
     <row r="42" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="32" t="s">
+      <c r="A42" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B42" s="45"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="32" t="s">
+      <c r="C42" s="73"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="25" t="s">
         <v>48</v>
       </c>
       <c r="F42" s="45"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="33"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="26"/>
     </row>
     <row r="43" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="32"/>
+      <c r="A43" s="25"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -2393,27 +2406,27 @@
       <c r="F43" s="10"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
-      <c r="I43" s="33"/>
+      <c r="I43" s="26"/>
     </row>
     <row r="44" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="45"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="86" t="s">
+      <c r="B44" s="47"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="E44" s="59"/>
+      <c r="E44" s="63"/>
       <c r="F44" s="45"/>
-      <c r="G44" s="47"/>
+      <c r="G44" s="46"/>
       <c r="H44" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I44" s="27"/>
+      <c r="I44" s="21"/>
     </row>
     <row r="45" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="32"/>
+      <c r="A45" s="25"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -2421,35 +2434,35 @@
       <c r="F45" s="7"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
-      <c r="I45" s="35"/>
+      <c r="I45" s="28"/>
     </row>
     <row r="46" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="86" t="s">
+      <c r="A46" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="59"/>
+      <c r="B46" s="63"/>
       <c r="C46" s="11"/>
-      <c r="D46" s="87" t="s">
+      <c r="D46" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="E46" s="59"/>
+      <c r="E46" s="63"/>
       <c r="F46" s="11"/>
-      <c r="G46" s="58" t="s">
+      <c r="G46" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="H46" s="59"/>
-      <c r="I46" s="27"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="21"/>
     </row>
     <row r="47" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="36"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="40"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="33"/>
     </row>
     <row r="48" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="6"/>
@@ -2463,113 +2476,87 @@
       <c r="I48" s="6"/>
     </row>
     <row r="49" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="60" t="s">
+      <c r="A49" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="85"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="55"/>
     </row>
     <row r="50" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="64" t="s">
+      <c r="B50" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="66"/>
-      <c r="D50" s="64" t="s">
+      <c r="C50" s="57"/>
+      <c r="D50" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="E50" s="66"/>
-      <c r="F50" s="64" t="s">
+      <c r="E50" s="57"/>
+      <c r="F50" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="G50" s="66"/>
-      <c r="H50" s="19" t="s">
+      <c r="G50" s="57"/>
+      <c r="H50" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="I50" s="19" t="s">
+      <c r="I50" s="17" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="20"/>
-      <c r="B51" s="88"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="91"/>
-      <c r="F51" s="88"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="41"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="34"/>
     </row>
     <row r="52" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="24"/>
+      <c r="A52" s="20"/>
       <c r="B52" s="45"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="47"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="48"/>
       <c r="F52" s="45"/>
-      <c r="G52" s="47"/>
+      <c r="G52" s="46"/>
       <c r="H52" s="11"/>
-      <c r="I52" s="27"/>
+      <c r="I52" s="21"/>
     </row>
     <row r="53" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="42"/>
-      <c r="B53" s="92"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="92"/>
-      <c r="G53" s="93"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="44"/>
+      <c r="A53" s="35"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="37"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E54" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="F32:I32"/>
+  <mergeCells count="57">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:I7"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="H11:I11"/>
@@ -2582,13 +2569,43 @@
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
